--- a/biology/Biologie cellulaire et moléculaire/Cartographie_génétique/Cartographie_génétique.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Cartographie_génétique/Cartographie_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cartographie_g%C3%A9n%C3%A9tique</t>
+          <t>Cartographie_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cartographie génétique est la construction d’une carte soit localisée autour d’un gène, soit à base large portant sur le génome entier. Plus généralement, c’est la détermination de la position d’un locus (gène ou marqueur génétique) sur un chromosome en fonction du taux de recombinaison génétique. Son unité de distance est le centimorgan (cM).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cartographie_g%C3%A9n%C3%A9tique</t>
+          <t>Cartographie_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Objectif de la cartographie génétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action de cartographier consiste à déterminer les positions relatives des locus (gènes ou séquences d’ADN) sur un chromosome. Les cartes de liaison sont obtenues à partir de la fréquence de recombinaison entre les locus. Les cartes physiques sont généralement obtenues par l’utilisation de l’hybridation in situ des fragments d’ADN clonés avec des chromosomes en métaphase, ou l’utilisation d’hybrides somatiques ou hybrides d’irradiation.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cartographie_g%C3%A9n%C3%A9tique</t>
+          <t>Cartographie_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Histoire de la cartographie génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première carte génétique est réalisée en 1913 par Thomas Hunt Morgan et Alfred Sturtevant sur le chromosome X de la drosophile[1]. La première plante cartographiée est le maïs en 1935 grâce à la technique des marqueurs phénotypiques. La technique du marquage moléculaire est beaucoup plus récente.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première carte génétique est réalisée en 1913 par Thomas Hunt Morgan et Alfred Sturtevant sur le chromosome X de la drosophile. La première plante cartographiée est le maïs en 1935 grâce à la technique des marqueurs phénotypiques. La technique du marquage moléculaire est beaucoup plus récente.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cartographie_g%C3%A9n%C3%A9tique</t>
+          <t>Cartographie_génétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Types de cartes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Une carte étant un diagramme représentant la position relative des locus sur un chromosome et les distances entre eux, on distingue les types de cartes suivants :
 Une carte génétique est un alignement linéaire des gènes sur un chromosome, basé sur les fréquences de recombinaison (carte de liaison) ou sur l’emplacement physique (carte physique ou chromosomique). Les termes de carte factorielle, ou de carte statistique, sont souvent fréquemment employés comme synonymes de carte génétique. Une carte génétique est aussi appelée carte de recombinaison méiotique.
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cartographie_g%C3%A9n%C3%A9tique</t>
+          <t>Cartographie_génétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Types de cartographies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La cartographie comparée est la comparaison de l’emplacement des gènes et des marqueurs sur une carte chromosomique entre espèces. Dans les comparaisons entre des espèces proches, on découvre un degré élevé de conservation :
 de la colinéarité : phénomène par lequel l’ordre des gènes est préservé entre des espèces différentes.
